--- a/checkpoints/predictions_epoch_2.xlsx
+++ b/checkpoints/predictions_epoch_2.xlsx
@@ -474,13 +474,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -491,40 +491,40 @@
       <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -532,39 +532,39 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -575,14 +575,14 @@
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
